--- a/Bulk Loads/_PRELIMINARY UTILITY EXPORT - LE_formatted.xlsx
+++ b/Bulk Loads/_PRELIMINARY UTILITY EXPORT - LE_formatted.xlsx
@@ -46,9 +46,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U149"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,10 +536,7 @@
           <t>EMERGENCY LAUNDRY AREA</t>
         </is>
       </c>
-      <c r="G2" s="1">
-        <f>IF(E2&gt;1,(1.732*D2*F2)/1000,(D2*F2)/1000)</f>
-        <v/>
-      </c>
+      <c r="G2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,10 +552,7 @@
           <t>SOILED TRIP CART</t>
         </is>
       </c>
-      <c r="G3" s="1">
-        <f>IF(E3&gt;1,(1.732*D3*F3)/1000,(D3*F3)/1000)</f>
-        <v/>
-      </c>
+      <c r="G3" s="1" t="n"/>
       <c r="U3" t="inlineStr">
         <is>
           <t>MOBILE, 12 BUSHEL</t>
@@ -578,10 +573,7 @@
           <t>LINEN CART</t>
         </is>
       </c>
-      <c r="G4" s="1">
-        <f>IF(E4&gt;1,(1.732*D4*F4)/1000,(D4*F4)/1000)</f>
-        <v/>
-      </c>
+      <c r="G4" s="1" t="n"/>
       <c r="U4" t="inlineStr">
         <is>
           <t>MOBILE, 8 BUSHEL</t>
@@ -641,10 +633,7 @@
           <t>ELECTRONIC READOUT</t>
         </is>
       </c>
-      <c r="G6" s="1">
-        <f>IF(E6&gt;1,(1.732*D6*F6)/1000,(D6*F6)/1000)</f>
-        <v/>
-      </c>
+      <c r="G6" s="1" t="n"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>FOR ITEM #L3</t>
@@ -667,10 +656,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G7" s="1">
-        <f>IF(E7&gt;1,(1.732*D7*F7)/1000,(D7*F7)/1000)</f>
-        <v/>
-      </c>
+      <c r="G7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -686,10 +672,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="G8" s="1">
-        <f>IF(E8&gt;1,(1.732*D8*F8)/1000,(D8*F8)/1000)</f>
-        <v/>
-      </c>
+      <c r="G8" s="1" t="n"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -728,10 +711,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G9" s="1">
-        <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
-        <v/>
-      </c>
+      <c r="G9" s="1" t="n"/>
       <c r="U9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -752,10 +732,7 @@
           <t>SOAK SINK</t>
         </is>
       </c>
-      <c r="G10" s="1">
-        <f>IF(E10&gt;1,(1.732*D10*F10)/1000,(D10*F10)/1000)</f>
-        <v/>
-      </c>
+      <c r="G10" s="1" t="n"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -791,10 +768,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G11" s="1">
-        <f>IF(E11&gt;1,(1.732*D11*F11)/1000,(D11*F11)/1000)</f>
-        <v/>
-      </c>
+      <c r="G11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -812,10 +786,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G12" s="1">
-        <f>IF(E12&gt;1,(1.732*D12*F12)/1000,(D12*F12)/1000)</f>
-        <v/>
-      </c>
+      <c r="G12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -990,10 +961,7 @@
           <t>LINEN CART</t>
         </is>
       </c>
-      <c r="G16" s="1">
-        <f>IF(E16&gt;1,(1.732*D16*F16)/1000,(D16*F16)/1000)</f>
-        <v/>
-      </c>
+      <c r="G16" s="1" t="n"/>
       <c r="U16" t="inlineStr">
         <is>
           <t>MOBILE, 8 BUSHEL</t>
@@ -1016,10 +984,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G17" s="1">
-        <f>IF(E17&gt;1,(1.732*D17*F17)/1000,(D17*F17)/1000)</f>
-        <v/>
-      </c>
+      <c r="G17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1035,10 +1000,7 @@
           <t>LINEN STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="G18" s="1">
-        <f>IF(E18&gt;1,(1.732*D18*F18)/1000,(D18*F18)/1000)</f>
-        <v/>
-      </c>
+      <c r="G18" s="1" t="n"/>
       <c r="U18" t="inlineStr">
         <is>
           <t>FIXED, FIVE TIER</t>
@@ -1059,10 +1021,7 @@
           <t>MOP SINK</t>
         </is>
       </c>
-      <c r="G19" s="1">
-        <f>IF(E19&gt;1,(1.732*D19*F19)/1000,(D19*F19)/1000)</f>
-        <v/>
-      </c>
+      <c r="G19" s="1" t="n"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>2"</t>
@@ -1083,10 +1042,7 @@
           <t>HOSE BIBB</t>
         </is>
       </c>
-      <c r="G20" s="1">
-        <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
-        <v/>
-      </c>
+      <c r="G20" s="1" t="n"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1114,10 +1070,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G21" s="1">
-        <f>IF(E21&gt;1,(1.732*D21*F21)/1000,(D21*F21)/1000)</f>
-        <v/>
-      </c>
+      <c r="G21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1135,10 +1088,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G22" s="1">
-        <f>IF(E22&gt;1,(1.732*D22*F22)/1000,(D22*F22)/1000)</f>
-        <v/>
-      </c>
+      <c r="G22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1154,10 +1104,7 @@
           <t>WALL SHELF</t>
         </is>
       </c>
-      <c r="G23" s="1">
-        <f>IF(E23&gt;1,(1.732*D23*F23)/1000,(D23*F23)/1000)</f>
-        <v/>
-      </c>
+      <c r="G23" s="1" t="n"/>
       <c r="U23" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1178,10 +1125,7 @@
           <t>MOP RACK</t>
         </is>
       </c>
-      <c r="G24" s="1">
-        <f>IF(E24&gt;1,(1.732*D24*F24)/1000,(D24*F24)/1000)</f>
-        <v/>
-      </c>
+      <c r="G24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1197,10 +1141,7 @@
           <t>DETERGENT STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="G25" s="1">
-        <f>IF(E25&gt;1,(1.732*D25*F25)/1000,(D25*F25)/1000)</f>
-        <v/>
-      </c>
+      <c r="G25" s="1" t="n"/>
       <c r="U25" t="inlineStr">
         <is>
           <t>FIXED, FIVE TIER</t>
@@ -1223,10 +1164,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G26" s="1">
-        <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
-        <v/>
-      </c>
+      <c r="G26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1244,10 +1182,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="G27" s="1">
-        <f>IF(E27&gt;1,(1.732*D27*F27)/1000,(D27*F27)/1000)</f>
-        <v/>
-      </c>
+      <c r="G27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1255,10 +1190,7 @@
           <t>CLEAN HOLD/OFFICE AREA</t>
         </is>
       </c>
-      <c r="G28" s="1">
-        <f>IF(E28&gt;1,(1.732*D28*F28)/1000,(D28*F28)/1000)</f>
-        <v/>
-      </c>
+      <c r="G28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1274,10 +1206,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="G29" s="1">
-        <f>IF(E29&gt;1,(1.732*D29*F29)/1000,(D29*F29)/1000)</f>
-        <v/>
-      </c>
+      <c r="G29" s="1" t="n"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1316,10 +1245,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G30" s="1">
-        <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
-        <v/>
-      </c>
+      <c r="G30" s="1" t="n"/>
       <c r="U30" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1340,10 +1266,7 @@
           <t>CLEAN LINEN STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="G31" s="1">
-        <f>IF(E31&gt;1,(1.732*D31*F31)/1000,(D31*F31)/1000)</f>
-        <v/>
-      </c>
+      <c r="G31" s="1" t="n"/>
       <c r="U31" t="inlineStr">
         <is>
           <t>FIXED, FIVE TIER</t>
@@ -1364,10 +1287,7 @@
           <t>SECURITY FENCE</t>
         </is>
       </c>
-      <c r="G32" s="1">
-        <f>IF(E32&gt;1,(1.732*D32*F32)/1000,(D32*F32)/1000)</f>
-        <v/>
-      </c>
+      <c r="G32" s="1" t="n"/>
       <c r="U32" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
@@ -1390,10 +1310,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G33" s="1">
-        <f>IF(E33&gt;1,(1.732*D33*F33)/1000,(D33*F33)/1000)</f>
-        <v/>
-      </c>
+      <c r="G33" s="1" t="n"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1409,10 +1326,7 @@
           <t>SECURITY DOOR</t>
         </is>
       </c>
-      <c r="G34" s="1">
-        <f>IF(E34&gt;1,(1.732*D34*F34)/1000,(D34*F34)/1000)</f>
-        <v/>
-      </c>
+      <c r="G34" s="1" t="n"/>
       <c r="U34" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
@@ -1433,10 +1347,7 @@
           <t>SECURE STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="G35" s="1">
-        <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
-        <v/>
-      </c>
+      <c r="G35" s="1" t="n"/>
       <c r="U35" t="inlineStr">
         <is>
           <t>FIXED, FIVE TIER</t>
@@ -1498,10 +1409,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G37" s="1">
-        <f>IF(E37&gt;1,(1.732*D37*F37)/1000,(D37*F37)/1000)</f>
-        <v/>
-      </c>
+      <c r="G37" s="1" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1519,10 +1427,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G38" s="1">
-        <f>IF(E38&gt;1,(1.732*D38*F38)/1000,(D38*F38)/1000)</f>
-        <v/>
-      </c>
+      <c r="G38" s="1" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1538,10 +1443,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="G39" s="1">
-        <f>IF(E39&gt;1,(1.732*D39*F39)/1000,(D39*F39)/1000)</f>
-        <v/>
-      </c>
+      <c r="G39" s="1" t="n"/>
       <c r="U39" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1601,10 +1503,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="G41" s="1">
-        <f>IF(E41&gt;1,(1.732*D41*F41)/1000,(D41*F41)/1000)</f>
-        <v/>
-      </c>
+      <c r="G41" s="1" t="n"/>
       <c r="U41" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1666,10 +1565,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G43" s="1">
-        <f>IF(E43&gt;1,(1.732*D43*F43)/1000,(D43*F43)/1000)</f>
-        <v/>
-      </c>
+      <c r="G43" s="1" t="n"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1685,10 +1581,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="G44" s="1">
-        <f>IF(E44&gt;1,(1.732*D44*F44)/1000,(D44*F44)/1000)</f>
-        <v/>
-      </c>
+      <c r="G44" s="1" t="n"/>
       <c r="U44" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1748,10 +1641,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="G46" s="1">
-        <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
-        <v/>
-      </c>
+      <c r="G46" s="1" t="n"/>
       <c r="U46" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1774,10 +1664,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G47" s="1">
-        <f>IF(E47&gt;1,(1.732*D47*F47)/1000,(D47*F47)/1000)</f>
-        <v/>
-      </c>
+      <c r="G47" s="1" t="n"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1795,10 +1682,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G48" s="1">
-        <f>IF(E48&gt;1,(1.732*D48*F48)/1000,(D48*F48)/1000)</f>
-        <v/>
-      </c>
+      <c r="G48" s="1" t="n"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1806,10 +1690,7 @@
           <t>WAREWASHING AREA</t>
         </is>
       </c>
-      <c r="G49" s="1">
-        <f>IF(E49&gt;1,(1.732*D49*F49)/1000,(D49*F49)/1000)</f>
-        <v/>
-      </c>
+      <c r="G49" s="1" t="n"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1825,10 +1706,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="G50" s="1">
-        <f>IF(E50&gt;1,(1.732*D50*F50)/1000,(D50*F50)/1000)</f>
-        <v/>
-      </c>
+      <c r="G50" s="1" t="n"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1867,10 +1745,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G51" s="1">
-        <f>IF(E51&gt;1,(1.732*D51*F51)/1000,(D51*F51)/1000)</f>
-        <v/>
-      </c>
+      <c r="G51" s="1" t="n"/>
       <c r="U51" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1891,10 +1766,7 @@
           <t>SOILED DSH TABLE WITH SINK</t>
         </is>
       </c>
-      <c r="G52" s="1">
-        <f>IF(E52&gt;1,(1.732*D52*F52)/1000,(D52*F52)/1000)</f>
-        <v/>
-      </c>
+      <c r="G52" s="1" t="n"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>2"</t>
@@ -1920,10 +1792,7 @@
           <t>PRE-RINSE UNIT</t>
         </is>
       </c>
-      <c r="G53" s="1">
-        <f>IF(E53&gt;1,(1.732*D53*F53)/1000,(D53*F53)/1000)</f>
-        <v/>
-      </c>
+      <c r="G53" s="1" t="n"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1959,10 +1828,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G54" s="1">
-        <f>IF(E54&gt;1,(1.732*D54*F54)/1000,(D54*F54)/1000)</f>
-        <v/>
-      </c>
+      <c r="G54" s="1" t="n"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1978,10 +1844,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G55" s="1">
-        <f>IF(E55&gt;1,(1.732*D55*F55)/1000,(D55*F55)/1000)</f>
-        <v/>
-      </c>
+      <c r="G55" s="1" t="n"/>
       <c r="U55" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -2062,10 +1925,7 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="G57" s="1">
-        <f>IF(E57&gt;1,(1.732*D57*F57)/1000,(D57*F57)/1000)</f>
-        <v/>
-      </c>
+      <c r="G57" s="1" t="n"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>2"</t>
@@ -2093,10 +1953,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G58" s="1">
-        <f>IF(E58&gt;1,(1.732*D58*F58)/1000,(D58*F58)/1000)</f>
-        <v/>
-      </c>
+      <c r="G58" s="1" t="n"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2114,10 +1971,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G59" s="1">
-        <f>IF(E59&gt;1,(1.732*D59*F59)/1000,(D59*F59)/1000)</f>
-        <v/>
-      </c>
+      <c r="G59" s="1" t="n"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2133,10 +1987,7 @@
           <t>CLEAN DISH TABLE</t>
         </is>
       </c>
-      <c r="G60" s="1">
-        <f>IF(E60&gt;1,(1.732*D60*F60)/1000,(D60*F60)/1000)</f>
-        <v/>
-      </c>
+      <c r="G60" s="1" t="n"/>
       <c r="U60" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2157,10 +2008,7 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="G61" s="1">
-        <f>IF(E61&gt;1,(1.732*D61*F61)/1000,(D61*F61)/1000)</f>
-        <v/>
-      </c>
+      <c r="G61" s="1" t="n"/>
       <c r="U61" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION, WALL MOUNTED</t>
@@ -2181,10 +2029,7 @@
           <t>CLEAN LINEN STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="G62" s="1">
-        <f>IF(E62&gt;1,(1.732*D62*F62)/1000,(D62*F62)/1000)</f>
-        <v/>
-      </c>
+      <c r="G62" s="1" t="n"/>
       <c r="U62" t="inlineStr">
         <is>
           <t>FIXED, FIVE TIER</t>
@@ -2207,10 +2052,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G63" s="1">
-        <f>IF(E63&gt;1,(1.732*D63*F63)/1000,(D63*F63)/1000)</f>
-        <v/>
-      </c>
+      <c r="G63" s="1" t="n"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2228,10 +2070,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="G64" s="1">
-        <f>IF(E64&gt;1,(1.732*D64*F64)/1000,(D64*F64)/1000)</f>
-        <v/>
-      </c>
+      <c r="G64" s="1" t="n"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2239,10 +2078,7 @@
           <t>DISPATCH/DETERGENT AREA</t>
         </is>
       </c>
-      <c r="G65" s="1">
-        <f>IF(E65&gt;1,(1.732*D65*F65)/1000,(D65*F65)/1000)</f>
-        <v/>
-      </c>
+      <c r="G65" s="1" t="n"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2297,10 +2133,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="G67" s="1">
-        <f>IF(E67&gt;1,(1.732*D67*F67)/1000,(D67*F67)/1000)</f>
-        <v/>
-      </c>
+      <c r="G67" s="1" t="n"/>
       <c r="U67" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2362,10 +2195,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G69" s="1">
-        <f>IF(E69&gt;1,(1.732*D69*F69)/1000,(D69*F69)/1000)</f>
-        <v/>
-      </c>
+      <c r="G69" s="1" t="n"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2383,10 +2213,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G70" s="1">
-        <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
-        <v/>
-      </c>
+      <c r="G70" s="1" t="n"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2402,10 +2229,7 @@
           <t>EQUIPMENT STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="G71" s="1">
-        <f>IF(E71&gt;1,(1.732*D71*F71)/1000,(D71*F71)/1000)</f>
-        <v/>
-      </c>
+      <c r="G71" s="1" t="n"/>
       <c r="U71" t="inlineStr">
         <is>
           <t>FIXED, FIVE TIER</t>
@@ -2428,10 +2252,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G72" s="1">
-        <f>IF(E72&gt;1,(1.732*D72*F72)/1000,(D72*F72)/1000)</f>
-        <v/>
-      </c>
+      <c r="G72" s="1" t="n"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2449,10 +2270,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G73" s="1">
-        <f>IF(E73&gt;1,(1.732*D73*F73)/1000,(D73*F73)/1000)</f>
-        <v/>
-      </c>
+      <c r="G73" s="1" t="n"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2470,10 +2288,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G74" s="1">
-        <f>IF(E74&gt;1,(1.732*D74*F74)/1000,(D74*F74)/1000)</f>
-        <v/>
-      </c>
+      <c r="G74" s="1" t="n"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2491,10 +2306,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G75" s="1">
-        <f>IF(E75&gt;1,(1.732*D75*F75)/1000,(D75*F75)/1000)</f>
-        <v/>
-      </c>
+      <c r="G75" s="1" t="n"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2510,10 +2322,7 @@
           <t>EYE WASH STATION</t>
         </is>
       </c>
-      <c r="G76" s="1">
-        <f>IF(E76&gt;1,(1.732*D76*F76)/1000,(D76*F76)/1000)</f>
-        <v/>
-      </c>
+      <c r="G76" s="1" t="n"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2547,10 +2356,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="G77" s="1">
-        <f>IF(E77&gt;1,(1.732*D77*F77)/1000,(D77*F77)/1000)</f>
-        <v/>
-      </c>
+      <c r="G77" s="1" t="n"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2589,10 +2395,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G78" s="1">
-        <f>IF(E78&gt;1,(1.732*D78*F78)/1000,(D78*F78)/1000)</f>
-        <v/>
-      </c>
+      <c r="G78" s="1" t="n"/>
       <c r="U78" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2615,10 +2418,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G79" s="1">
-        <f>IF(E79&gt;1,(1.732*D79*F79)/1000,(D79*F79)/1000)</f>
-        <v/>
-      </c>
+      <c r="G79" s="1" t="n"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2636,10 +2436,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G80" s="1">
-        <f>IF(E80&gt;1,(1.732*D80*F80)/1000,(D80*F80)/1000)</f>
-        <v/>
-      </c>
+      <c r="G80" s="1" t="n"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2655,10 +2452,7 @@
           <t>FILL COUNTER WITH SINK</t>
         </is>
       </c>
-      <c r="G81" s="1">
-        <f>IF(E81&gt;1,(1.732*D81*F81)/1000,(D81*F81)/1000)</f>
-        <v/>
-      </c>
+      <c r="G81" s="1" t="n"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2697,10 +2491,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G82" s="1">
-        <f>IF(E82&gt;1,(1.732*D82*F82)/1000,(D82*F82)/1000)</f>
-        <v/>
-      </c>
+      <c r="G82" s="1" t="n"/>
       <c r="U82" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -2721,10 +2512,7 @@
           <t>DETERGENT FILLING STATION</t>
         </is>
       </c>
-      <c r="G83" s="1">
-        <f>IF(E83&gt;1,(1.732*D83*F83)/1000,(D83*F83)/1000)</f>
-        <v/>
-      </c>
+      <c r="G83" s="1" t="n"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>1"</t>
@@ -2745,10 +2533,7 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="G84" s="1">
-        <f>IF(E84&gt;1,(1.732*D84*F84)/1000,(D84*F84)/1000)</f>
-        <v/>
-      </c>
+      <c r="G84" s="1" t="n"/>
       <c r="U84" t="inlineStr">
         <is>
           <t>FIXED, FIVE TIER</t>
@@ -2771,10 +2556,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="G85" s="1">
-        <f>IF(E85&gt;1,(1.732*D85*F85)/1000,(D85*F85)/1000)</f>
-        <v/>
-      </c>
+      <c r="G85" s="1" t="n"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2782,10 +2564,7 @@
           <t>HOUSEKEEPING AREA</t>
         </is>
       </c>
-      <c r="G86" s="1">
-        <f>IF(E86&gt;1,(1.732*D86*F86)/1000,(D86*F86)/1000)</f>
-        <v/>
-      </c>
+      <c r="G86" s="1" t="n"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2801,10 +2580,7 @@
           <t>GARMENT RACK</t>
         </is>
       </c>
-      <c r="G87" s="1">
-        <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
-        <v/>
-      </c>
+      <c r="G87" s="1" t="n"/>
       <c r="U87" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -2825,10 +2601,7 @@
           <t>SECURITY STORAGE</t>
         </is>
       </c>
-      <c r="G88" s="1">
-        <f>IF(E88&gt;1,(1.732*D88*F88)/1000,(D88*F88)/1000)</f>
-        <v/>
-      </c>
+      <c r="G88" s="1" t="n"/>
       <c r="U88" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -2849,10 +2622,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="G89" s="1">
-        <f>IF(E89&gt;1,(1.732*D89*F89)/1000,(D89*F89)/1000)</f>
-        <v/>
-      </c>
+      <c r="G89" s="1" t="n"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2891,10 +2661,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G90" s="1">
-        <f>IF(E90&gt;1,(1.732*D90*F90)/1000,(D90*F90)/1000)</f>
-        <v/>
-      </c>
+      <c r="G90" s="1" t="n"/>
       <c r="U90" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2917,10 +2684,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G91" s="1">
-        <f>IF(E91&gt;1,(1.732*D91*F91)/1000,(D91*F91)/1000)</f>
-        <v/>
-      </c>
+      <c r="G91" s="1" t="n"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2936,10 +2700,7 @@
           <t>MOP SINK</t>
         </is>
       </c>
-      <c r="G92" s="1">
-        <f>IF(E92&gt;1,(1.732*D92*F92)/1000,(D92*F92)/1000)</f>
-        <v/>
-      </c>
+      <c r="G92" s="1" t="n"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>2"</t>
@@ -2960,10 +2721,7 @@
           <t>HOSE BIBB</t>
         </is>
       </c>
-      <c r="G93" s="1">
-        <f>IF(E93&gt;1,(1.732*D93*F93)/1000,(D93*F93)/1000)</f>
-        <v/>
-      </c>
+      <c r="G93" s="1" t="n"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2989,10 +2747,7 @@
           <t>WALL SHELF</t>
         </is>
       </c>
-      <c r="G94" s="1">
-        <f>IF(E94&gt;1,(1.732*D94*F94)/1000,(D94*F94)/1000)</f>
-        <v/>
-      </c>
+      <c r="G94" s="1" t="n"/>
       <c r="U94" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3015,10 +2770,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G95" s="1">
-        <f>IF(E95&gt;1,(1.732*D95*F95)/1000,(D95*F95)/1000)</f>
-        <v/>
-      </c>
+      <c r="G95" s="1" t="n"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3036,10 +2788,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G96" s="1">
-        <f>IF(E96&gt;1,(1.732*D96*F96)/1000,(D96*F96)/1000)</f>
-        <v/>
-      </c>
+      <c r="G96" s="1" t="n"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3055,10 +2804,7 @@
           <t>HOUSEKEEPING CART</t>
         </is>
       </c>
-      <c r="G97" s="1">
-        <f>IF(E97&gt;1,(1.732*D97*F97)/1000,(D97*F97)/1000)</f>
-        <v/>
-      </c>
+      <c r="G97" s="1" t="n"/>
       <c r="U97" t="inlineStr">
         <is>
           <t>MOBILE, BY OS&amp;E</t>
@@ -3079,10 +2825,7 @@
           <t>LINEN CART</t>
         </is>
       </c>
-      <c r="G98" s="1">
-        <f>IF(E98&gt;1,(1.732*D98*F98)/1000,(D98*F98)/1000)</f>
-        <v/>
-      </c>
+      <c r="G98" s="1" t="n"/>
       <c r="U98" t="inlineStr">
         <is>
           <t>MOBILE, 12 BUSHEL</t>
@@ -3105,10 +2848,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G99" s="1">
-        <f>IF(E99&gt;1,(1.732*D99*F99)/1000,(D99*F99)/1000)</f>
-        <v/>
-      </c>
+      <c r="G99" s="1" t="n"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3126,10 +2866,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G100" s="1">
-        <f>IF(E100&gt;1,(1.732*D100*F100)/1000,(D100*F100)/1000)</f>
-        <v/>
-      </c>
+      <c r="G100" s="1" t="n"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3147,10 +2884,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="G101" s="1">
-        <f>IF(E101&gt;1,(1.732*D101*F101)/1000,(D101*F101)/1000)</f>
-        <v/>
-      </c>
+      <c r="G101" s="1" t="n"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3158,10 +2892,7 @@
           <t>HOUSEKEEPING AREA</t>
         </is>
       </c>
-      <c r="G102" s="1">
-        <f>IF(E102&gt;1,(1.732*D102*F102)/1000,(D102*F102)/1000)</f>
-        <v/>
-      </c>
+      <c r="G102" s="1" t="n"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3177,10 +2908,7 @@
           <t>MOP SINK</t>
         </is>
       </c>
-      <c r="G103" s="1">
-        <f>IF(E103&gt;1,(1.732*D103*F103)/1000,(D103*F103)/1000)</f>
-        <v/>
-      </c>
+      <c r="G103" s="1" t="n"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>2"</t>
@@ -3201,10 +2929,7 @@
           <t>HOSE BIBB</t>
         </is>
       </c>
-      <c r="G104" s="1">
-        <f>IF(E104&gt;1,(1.732*D104*F104)/1000,(D104*F104)/1000)</f>
-        <v/>
-      </c>
+      <c r="G104" s="1" t="n"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3230,10 +2955,7 @@
           <t>WALL SHELF</t>
         </is>
       </c>
-      <c r="G105" s="1">
-        <f>IF(E105&gt;1,(1.732*D105*F105)/1000,(D105*F105)/1000)</f>
-        <v/>
-      </c>
+      <c r="G105" s="1" t="n"/>
       <c r="U105" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3254,10 +2976,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G106" s="1">
-        <f>IF(E106&gt;1,(1.732*D106*F106)/1000,(D106*F106)/1000)</f>
-        <v/>
-      </c>
+      <c r="G106" s="1" t="n"/>
       <c r="U106" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -3280,10 +2999,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G107" s="1">
-        <f>IF(E107&gt;1,(1.732*D107*F107)/1000,(D107*F107)/1000)</f>
-        <v/>
-      </c>
+      <c r="G107" s="1" t="n"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3299,10 +3015,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="G108" s="1">
-        <f>IF(E108&gt;1,(1.732*D108*F108)/1000,(D108*F108)/1000)</f>
-        <v/>
-      </c>
+      <c r="G108" s="1" t="n"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3341,10 +3054,7 @@
           <t>SECURITY STORAGE</t>
         </is>
       </c>
-      <c r="G109" s="1">
-        <f>IF(E109&gt;1,(1.732*D109*F109)/1000,(D109*F109)/1000)</f>
-        <v/>
-      </c>
+      <c r="G109" s="1" t="n"/>
       <c r="U109" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -3365,10 +3075,7 @@
           <t>GARMENT RACK</t>
         </is>
       </c>
-      <c r="G110" s="1">
-        <f>IF(E110&gt;1,(1.732*D110*F110)/1000,(D110*F110)/1000)</f>
-        <v/>
-      </c>
+      <c r="G110" s="1" t="n"/>
       <c r="U110" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -3391,10 +3098,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G111" s="1">
-        <f>IF(E111&gt;1,(1.732*D111*F111)/1000,(D111*F111)/1000)</f>
-        <v/>
-      </c>
+      <c r="G111" s="1" t="n"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3412,10 +3116,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G112" s="1">
-        <f>IF(E112&gt;1,(1.732*D112*F112)/1000,(D112*F112)/1000)</f>
-        <v/>
-      </c>
+      <c r="G112" s="1" t="n"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3431,10 +3132,7 @@
           <t>HOUSEKEEPING CART</t>
         </is>
       </c>
-      <c r="G113" s="1">
-        <f>IF(E113&gt;1,(1.732*D113*F113)/1000,(D113*F113)/1000)</f>
-        <v/>
-      </c>
+      <c r="G113" s="1" t="n"/>
       <c r="U113" t="inlineStr">
         <is>
           <t>MOBILE, BY OS&amp;E</t>
@@ -3455,10 +3153,7 @@
           <t>LINEN CART</t>
         </is>
       </c>
-      <c r="G114" s="1">
-        <f>IF(E114&gt;1,(1.732*D114*F114)/1000,(D114*F114)/1000)</f>
-        <v/>
-      </c>
+      <c r="G114" s="1" t="n"/>
       <c r="U114" t="inlineStr">
         <is>
           <t>MOBILE, 12 BUSHEL</t>
@@ -3481,10 +3176,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G115" s="1">
-        <f>IF(E115&gt;1,(1.732*D115*F115)/1000,(D115*F115)/1000)</f>
-        <v/>
-      </c>
+      <c r="G115" s="1" t="n"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3502,10 +3194,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G116" s="1">
-        <f>IF(E116&gt;1,(1.732*D116*F116)/1000,(D116*F116)/1000)</f>
-        <v/>
-      </c>
+      <c r="G116" s="1" t="n"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3523,10 +3212,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="G117" s="1">
-        <f>IF(E117&gt;1,(1.732*D117*F117)/1000,(D117*F117)/1000)</f>
-        <v/>
-      </c>
+      <c r="G117" s="1" t="n"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3534,10 +3220,7 @@
           <t>HOUSEKEEPING AREA</t>
         </is>
       </c>
-      <c r="G118" s="1">
-        <f>IF(E118&gt;1,(1.732*D118*F118)/1000,(D118*F118)/1000)</f>
-        <v/>
-      </c>
+      <c r="G118" s="1" t="n"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3553,10 +3236,7 @@
           <t>MOP SINK</t>
         </is>
       </c>
-      <c r="G119" s="1">
-        <f>IF(E119&gt;1,(1.732*D119*F119)/1000,(D119*F119)/1000)</f>
-        <v/>
-      </c>
+      <c r="G119" s="1" t="n"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>2"</t>
@@ -3577,10 +3257,7 @@
           <t>HOSE BIBB</t>
         </is>
       </c>
-      <c r="G120" s="1">
-        <f>IF(E120&gt;1,(1.732*D120*F120)/1000,(D120*F120)/1000)</f>
-        <v/>
-      </c>
+      <c r="G120" s="1" t="n"/>
       <c r="H120" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3606,10 +3283,7 @@
           <t>WALL SHELF</t>
         </is>
       </c>
-      <c r="G121" s="1">
-        <f>IF(E121&gt;1,(1.732*D121*F121)/1000,(D121*F121)/1000)</f>
-        <v/>
-      </c>
+      <c r="G121" s="1" t="n"/>
       <c r="U121" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3630,10 +3304,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G122" s="1">
-        <f>IF(E122&gt;1,(1.732*D122*F122)/1000,(D122*F122)/1000)</f>
-        <v/>
-      </c>
+      <c r="G122" s="1" t="n"/>
       <c r="U122" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -3656,10 +3327,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G123" s="1">
-        <f>IF(E123&gt;1,(1.732*D123*F123)/1000,(D123*F123)/1000)</f>
-        <v/>
-      </c>
+      <c r="G123" s="1" t="n"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3675,10 +3343,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="G124" s="1">
-        <f>IF(E124&gt;1,(1.732*D124*F124)/1000,(D124*F124)/1000)</f>
-        <v/>
-      </c>
+      <c r="G124" s="1" t="n"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3717,10 +3382,7 @@
           <t>SECURITY STORAGE</t>
         </is>
       </c>
-      <c r="G125" s="1">
-        <f>IF(E125&gt;1,(1.732*D125*F125)/1000,(D125*F125)/1000)</f>
-        <v/>
-      </c>
+      <c r="G125" s="1" t="n"/>
       <c r="U125" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -3741,10 +3403,7 @@
           <t>GARMENT RACK</t>
         </is>
       </c>
-      <c r="G126" s="1">
-        <f>IF(E126&gt;1,(1.732*D126*F126)/1000,(D126*F126)/1000)</f>
-        <v/>
-      </c>
+      <c r="G126" s="1" t="n"/>
       <c r="U126" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -3767,10 +3426,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G127" s="1">
-        <f>IF(E127&gt;1,(1.732*D127*F127)/1000,(D127*F127)/1000)</f>
-        <v/>
-      </c>
+      <c r="G127" s="1" t="n"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3788,10 +3444,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G128" s="1">
-        <f>IF(E128&gt;1,(1.732*D128*F128)/1000,(D128*F128)/1000)</f>
-        <v/>
-      </c>
+      <c r="G128" s="1" t="n"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3807,10 +3460,7 @@
           <t>HOUSEKEEPING CART</t>
         </is>
       </c>
-      <c r="G129" s="1">
-        <f>IF(E129&gt;1,(1.732*D129*F129)/1000,(D129*F129)/1000)</f>
-        <v/>
-      </c>
+      <c r="G129" s="1" t="n"/>
       <c r="U129" t="inlineStr">
         <is>
           <t>MOBILE, BY OS&amp;E</t>
@@ -3831,10 +3481,7 @@
           <t>LINEN CART</t>
         </is>
       </c>
-      <c r="G130" s="1">
-        <f>IF(E130&gt;1,(1.732*D130*F130)/1000,(D130*F130)/1000)</f>
-        <v/>
-      </c>
+      <c r="G130" s="1" t="n"/>
       <c r="U130" t="inlineStr">
         <is>
           <t>MOBILE, 12 BUSHEL</t>
@@ -3857,10 +3504,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G131" s="1">
-        <f>IF(E131&gt;1,(1.732*D131*F131)/1000,(D131*F131)/1000)</f>
-        <v/>
-      </c>
+      <c r="G131" s="1" t="n"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3878,10 +3522,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G132" s="1">
-        <f>IF(E132&gt;1,(1.732*D132*F132)/1000,(D132*F132)/1000)</f>
-        <v/>
-      </c>
+      <c r="G132" s="1" t="n"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3899,10 +3540,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="G133" s="1">
-        <f>IF(E133&gt;1,(1.732*D133*F133)/1000,(D133*F133)/1000)</f>
-        <v/>
-      </c>
+      <c r="G133" s="1" t="n"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3910,10 +3548,7 @@
           <t>HOUSEKEEPING AREA</t>
         </is>
       </c>
-      <c r="G134" s="1">
-        <f>IF(E134&gt;1,(1.732*D134*F134)/1000,(D134*F134)/1000)</f>
-        <v/>
-      </c>
+      <c r="G134" s="1" t="n"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3929,10 +3564,7 @@
           <t>MOP SINK</t>
         </is>
       </c>
-      <c r="G135" s="1">
-        <f>IF(E135&gt;1,(1.732*D135*F135)/1000,(D135*F135)/1000)</f>
-        <v/>
-      </c>
+      <c r="G135" s="1" t="n"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>2"</t>
@@ -3953,10 +3585,7 @@
           <t>HOSE BIBB</t>
         </is>
       </c>
-      <c r="G136" s="1">
-        <f>IF(E136&gt;1,(1.732*D136*F136)/1000,(D136*F136)/1000)</f>
-        <v/>
-      </c>
+      <c r="G136" s="1" t="n"/>
       <c r="H136" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3982,10 +3611,7 @@
           <t>WALL SHELF</t>
         </is>
       </c>
-      <c r="G137" s="1">
-        <f>IF(E137&gt;1,(1.732*D137*F137)/1000,(D137*F137)/1000)</f>
-        <v/>
-      </c>
+      <c r="G137" s="1" t="n"/>
       <c r="U137" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4006,10 +3632,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="G138" s="1">
-        <f>IF(E138&gt;1,(1.732*D138*F138)/1000,(D138*F138)/1000)</f>
-        <v/>
-      </c>
+      <c r="G138" s="1" t="n"/>
       <c r="U138" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -4032,10 +3655,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G139" s="1">
-        <f>IF(E139&gt;1,(1.732*D139*F139)/1000,(D139*F139)/1000)</f>
-        <v/>
-      </c>
+      <c r="G139" s="1" t="n"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4051,10 +3671,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="G140" s="1">
-        <f>IF(E140&gt;1,(1.732*D140*F140)/1000,(D140*F140)/1000)</f>
-        <v/>
-      </c>
+      <c r="G140" s="1" t="n"/>
       <c r="H140" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -4093,10 +3710,7 @@
           <t>SECURITY STORAGE</t>
         </is>
       </c>
-      <c r="G141" s="1">
-        <f>IF(E141&gt;1,(1.732*D141*F141)/1000,(D141*F141)/1000)</f>
-        <v/>
-      </c>
+      <c r="G141" s="1" t="n"/>
       <c r="U141" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -4117,10 +3731,7 @@
           <t>GARMENT RACK</t>
         </is>
       </c>
-      <c r="G142" s="1">
-        <f>IF(E142&gt;1,(1.732*D142*F142)/1000,(D142*F142)/1000)</f>
-        <v/>
-      </c>
+      <c r="G142" s="1" t="n"/>
       <c r="U142" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -4143,10 +3754,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G143" s="1">
-        <f>IF(E143&gt;1,(1.732*D143*F143)/1000,(D143*F143)/1000)</f>
-        <v/>
-      </c>
+      <c r="G143" s="1" t="n"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4164,10 +3772,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G144" s="1">
-        <f>IF(E144&gt;1,(1.732*D144*F144)/1000,(D144*F144)/1000)</f>
-        <v/>
-      </c>
+      <c r="G144" s="1" t="n"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4183,10 +3788,7 @@
           <t>HOUSEKEEPING CART</t>
         </is>
       </c>
-      <c r="G145" s="1">
-        <f>IF(E145&gt;1,(1.732*D145*F145)/1000,(D145*F145)/1000)</f>
-        <v/>
-      </c>
+      <c r="G145" s="1" t="n"/>
       <c r="U145" t="inlineStr">
         <is>
           <t>MOBILE, BY OS&amp;E</t>
@@ -4207,10 +3809,7 @@
           <t>LINEN CART</t>
         </is>
       </c>
-      <c r="G146" s="1">
-        <f>IF(E146&gt;1,(1.732*D146*F146)/1000,(D146*F146)/1000)</f>
-        <v/>
-      </c>
+      <c r="G146" s="1" t="n"/>
       <c r="U146" t="inlineStr">
         <is>
           <t>MOBILE, 12 BUSHEL</t>
@@ -4233,10 +3832,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G147" s="1">
-        <f>IF(E147&gt;1,(1.732*D147*F147)/1000,(D147*F147)/1000)</f>
-        <v/>
-      </c>
+      <c r="G147" s="1" t="n"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4254,10 +3850,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="G148" s="1">
-        <f>IF(E148&gt;1,(1.732*D148*F148)/1000,(D148*F148)/1000)</f>
-        <v/>
-      </c>
+      <c r="G148" s="1" t="n"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4275,8 +3868,18 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="G149">
-        <f>IF(E149&gt;1,(1.732*D149*F149)/1000,(D149*F149)/1000)</f>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G151" s="2">
+        <f>SUM(G7:G150)</f>
         <v/>
       </c>
     </row>
